--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.053131633953645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.610684773925717</v>
+        <v>8.610684773925719</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9668826334865738</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.464991194837887</v>
+        <v>-5.763525601526745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.863328092021474</v>
+        <v>-7.267733215630387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.646231396458442</v>
+        <v>2.626692405346408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.085035973023965</v>
+        <v>-4.986245357285397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.366929943825943</v>
+        <v>-7.44204037540135</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.627547890701142</v>
+        <v>-2.648773067595155</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.19254457946485</v>
+        <v>-4.27234467125109</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.045060965737055</v>
+        <v>-6.053676480500722</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.175460073165612</v>
+        <v>2.051798024224387</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.852427214583822</v>
+        <v>5.917091724629824</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.880610747481382</v>
+        <v>3.261172717749582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.60444933837964</v>
+        <v>14.30062253215305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.934422771505747</v>
+        <v>8.018165519318012</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.602952856843059</v>
+        <v>4.150444085809998</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.913425442469498</v>
+        <v>8.08983038727362</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.5358862836502</v>
+        <v>4.253509569321247</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.639038615594998</v>
+        <v>1.825269976480395</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.681496961208195</v>
+        <v>9.808625787910655</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1671235133222593</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7009038620469866</v>
+        <v>0.7009038620469868</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06561026675719978</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4214824422898579</v>
+        <v>-0.3798786236990215</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5065921969091577</v>
+        <v>-0.4964293866927218</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1582976514783079</v>
+        <v>0.1501692372385279</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3319161124014124</v>
+        <v>-0.2814966712243292</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4683623821769528</v>
+        <v>-0.4349416654346021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1508751920453799</v>
+        <v>-0.1430971990248049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2623513265985759</v>
+        <v>-0.2700347053854654</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3866375410966934</v>
+        <v>-0.390529122515428</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1287852285333133</v>
+        <v>0.1303334782535828</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4943704476029365</v>
+        <v>0.6704496579707008</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3026844025484097</v>
+        <v>0.3644851717662989</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.516009640639094</v>
+        <v>1.455321299088616</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5917234687364574</v>
+        <v>0.7323551085886506</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3252628989937197</v>
+        <v>0.3569782111969761</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6837355333457773</v>
+        <v>0.7793172522256723</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3917914337405494</v>
+        <v>0.363970102528626</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1438629137142429</v>
+        <v>0.1538684303939659</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8693603726576766</v>
+        <v>0.8865140231720362</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.245529613915015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.341271439765507</v>
+        <v>4.341271439765504</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.608379014496589</v>
@@ -878,7 +878,7 @@
         <v>5.007289450971794</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7919416531022794</v>
+        <v>0.7919416531022738</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.171040788129154</v>
+        <v>0.7379742513045876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9519432717196054</v>
+        <v>1.065634875357072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01289152837627097</v>
+        <v>0.2327264815881925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.197305966132394</v>
+        <v>-2.294167469154104</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6174972855305869</v>
+        <v>-1.105450820078286</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.253136811568021</v>
+        <v>-6.813343437888802</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7465459383874453</v>
+        <v>0.6245684886545907</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.262214495743101</v>
+        <v>1.651363132737909</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.29616713414321</v>
+        <v>-2.600384027756848</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.174215652870467</v>
+        <v>9.574012299882005</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.02915418403179</v>
+        <v>10.04775114516306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.947976930083545</v>
+        <v>9.0061906954439</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.918451585614152</v>
+        <v>7.583171696819013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.488116606720611</v>
+        <v>9.45036451950592</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.274690444214861</v>
+        <v>1.354277589278699</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.609532579336403</v>
+        <v>6.867877540382862</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.349769526081303</v>
+        <v>8.198779159088101</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.922751000912136</v>
+        <v>3.819343832512316</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.4874705860834155</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4034372673210821</v>
+        <v>0.4034372673210819</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1459411542134829</v>
@@ -983,7 +983,7 @@
         <v>0.3488052385061945</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05516625309921325</v>
+        <v>0.05516625309921287</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01930835523719869</v>
+        <v>0.06226705966647477</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07152338379713905</v>
+        <v>0.07789962393308095</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0005982806094388125</v>
+        <v>0.004069670234518213</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1143569928557892</v>
+        <v>-0.1265177570851712</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03084252334174959</v>
+        <v>-0.05832682790129937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3556427666464316</v>
+        <v>-0.3310948395778768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03058544845715596</v>
+        <v>0.0333559489961534</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08112757496339197</v>
+        <v>0.09910849627375744</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1442068628372595</v>
+        <v>-0.161476545585722</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.039627100877198</v>
+        <v>1.104901722725422</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.123237302794713</v>
+        <v>1.138593656148276</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.048491410461105</v>
+        <v>1.023115945917432</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5144309045119393</v>
+        <v>0.4955398589659827</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.621305051263121</v>
+        <v>0.6051387771676014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08913733190536054</v>
+        <v>0.09363043528404759</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5825606711590889</v>
+        <v>0.5421280318445191</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6569296206502065</v>
+        <v>0.628633598080743</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3073836351933651</v>
+        <v>0.2979232156102467</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.302932594851836</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.005811256696261</v>
+        <v>6.005811256696256</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6664763851608967</v>
+        <v>-1.299478539949645</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.840026191573828</v>
+        <v>-3.328053549407472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.110272563463558</v>
+        <v>2.415145352079031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.735775135700906</v>
+        <v>-3.451857310607039</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.11721367605876</v>
+        <v>-9.719612462701239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.49710673940903</v>
+        <v>-1.4755583523461</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4392258544159139</v>
+        <v>-0.6875799041929425</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.238268986681821</v>
+        <v>-5.466192939088083</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.834882282266816</v>
+        <v>2.222952552506592</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.73169330643344</v>
+        <v>10.24294814108274</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.814237312056318</v>
+        <v>7.624353772284131</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.85422197489466</v>
+        <v>13.23408266904796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.79018437749982</v>
+        <v>9.617250739254908</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.863513924591943</v>
+        <v>2.294320663970364</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.55870214872456</v>
+        <v>9.845596091468714</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.276350288714482</v>
+        <v>8.33032934229977</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.99038964198796</v>
+        <v>2.491926850599527</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.827695111758265</v>
+        <v>9.97251110117926</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.0779586149609358</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3593468527372901</v>
+        <v>0.3593468527372897</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0586228557944676</v>
+        <v>-0.08412229657194628</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2515863413167427</v>
+        <v>-0.2044890394960937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1295047289855364</v>
+        <v>0.1391917816322832</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.144163771098193</v>
+        <v>-0.1444670225392978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.437051258931729</v>
+        <v>-0.446024060060364</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06520826266611299</v>
+        <v>-0.06808741321159067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02932220403874293</v>
+        <v>-0.03883707645401777</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2804442030015242</v>
+        <v>-0.2902833941163015</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09442346470736686</v>
+        <v>0.1198212501524997</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.002204035974064</v>
+        <v>0.9615164442077804</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6320312591461595</v>
+        <v>0.7060146683530264</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.207245065512109</v>
+        <v>1.216365788961698</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5721130275305559</v>
+        <v>0.5752760655631469</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1179998756400006</v>
+        <v>0.1376521302617297</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5889269773504154</v>
+        <v>0.6041514930649325</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5532903277939374</v>
+        <v>0.5685923518606479</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2111515939743158</v>
+        <v>0.1775145920250778</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6620209122667843</v>
+        <v>0.6946084947869381</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.55334568902729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.237125185344374</v>
+        <v>5.23712518534438</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.475532343266191</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3723514830067408</v>
+        <v>-0.5507617768327252</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.350179371985162</v>
+        <v>-1.643715568630219</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1526684289785026</v>
+        <v>-0.7571889553461139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2367855975690035</v>
+        <v>1.084603534311984</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.515750656356579</v>
+        <v>-2.34368737863787</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.901163558688765</v>
+        <v>-1.855852144942927</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.135043988035244</v>
+        <v>1.711882167905206</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3476927430067858</v>
+        <v>-0.5764963351096021</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5878774175326212</v>
+        <v>0.6366836612336932</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.47384622430092</v>
+        <v>10.41379505082697</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.658298679037317</v>
+        <v>8.986672342931731</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.64373062326491</v>
+        <v>10.73208095154824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.98539025678252</v>
+        <v>12.51628887153191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.201465741447361</v>
+        <v>9.222149520895924</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.725313078854014</v>
+        <v>7.865702681688309</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.22008370818527</v>
+        <v>9.817432687955547</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.275745530712556</v>
+        <v>7.307067282926936</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.890759774115595</v>
+        <v>7.706642332895977</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2679556072631784</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.394928380789314</v>
+        <v>0.3949283807893145</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3546646324315936</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02548418649460726</v>
+        <v>-0.03390413268670526</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09495208600482724</v>
+        <v>-0.1171553670487568</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02547666769023293</v>
+        <v>-0.0581635228350203</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.009964471258068481</v>
+        <v>0.04172400076989825</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1175612530362387</v>
+        <v>-0.1243778911942559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09300502415270279</v>
+        <v>-0.08725330800502554</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1180398112503707</v>
+        <v>0.09678688772795598</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0198637547202553</v>
+        <v>-0.03843070877622692</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.04468134759450854</v>
+        <v>0.03397864085171</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9070762586854354</v>
+        <v>0.9499221084333827</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8119173296317755</v>
+        <v>0.8276903851728726</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9325447386159326</v>
+        <v>0.9746832544565501</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7858159092985423</v>
+        <v>0.8226621100267081</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5963501421192942</v>
+        <v>0.5861682347818133</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5022373888710594</v>
+        <v>0.5470149240438072</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7180041587003632</v>
+        <v>0.7151548889155922</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5171641853337353</v>
+        <v>0.5177698983072884</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5829255048401842</v>
+        <v>0.5504748473270886</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8720203357437309</v>
+        <v>0.7489568336656096</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.265741852029158</v>
+        <v>-3.486766948730512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.299122075144919</v>
+        <v>3.555758907892018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.751234602010157</v>
+        <v>6.777235130641697</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5467630921325151</v>
+        <v>0.4177489819390716</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.379456169668819</v>
+        <v>6.953107888996707</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.386816841742312</v>
+        <v>5.55347491923635</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.08610856203580544</v>
+        <v>0.3567098189240341</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.123243064294235</v>
+        <v>7.094490285374381</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.01076244395117</v>
+        <v>13.81625411352458</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.745047866053106</v>
+        <v>8.11172186122336</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.69423597851602</v>
+        <v>14.43785003314542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22.09006867079755</v>
+        <v>22.02317702352131</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.51706362813459</v>
+        <v>14.7826296235728</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>19.09567628883644</v>
+        <v>18.9925509675841</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.39854547174303</v>
+        <v>16.00167754619761</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.560026275624866</v>
+        <v>9.243926458168801</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.19196924760547</v>
+        <v>15.42483670652168</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.4560137608772949</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.077352069038658</v>
+        <v>1.077352069038657</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04603978739791392</v>
+        <v>0.008297501244848245</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.386941961263584</v>
+        <v>-0.329804975460875</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2483930629085841</v>
+        <v>0.2612203731220466</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.44782997979972</v>
+        <v>0.3671959630462172</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03195983750973776</v>
+        <v>-0.009676270840541203</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4306463632086785</v>
+        <v>0.4109852448359355</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4282093132604535</v>
+        <v>0.4351354176659198</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01376759857226359</v>
+        <v>0.02029742297279064</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5599565472698333</v>
+        <v>0.5305939243048526</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.153521904163439</v>
+        <v>2.195171215796943</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.229212524396932</v>
+        <v>1.294029490609802</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.449937137457094</v>
+        <v>2.488688083371084</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.630481880892241</v>
+        <v>2.505415463911027</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.707067527993772</v>
+        <v>1.696161933904183</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.308928798371638</v>
+        <v>2.299990383763185</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.906523565634513</v>
+        <v>1.916778792134711</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.156828015508242</v>
+        <v>1.129877423467395</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.885990487321876</v>
+        <v>1.936742039506283</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.696949255604231</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.359557256435275</v>
+        <v>4.359557256435265</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.390973182469791</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.9510366836046008</v>
+        <v>1.124745863940683</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.976223142409268</v>
+        <v>-7.771377123260486</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.664115190310981</v>
+        <v>5.002433493359423</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.958746764937929</v>
+        <v>-3.803804423382012</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.770958599821959</v>
+        <v>-9.122706380267001</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.967517304646748</v>
+        <v>-1.506774254265377</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.3138871236961921</v>
+        <v>0.4305251512678827</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.085860686132656</v>
+        <v>-6.731991899840002</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.706617193887587</v>
+        <v>3.398992261670446</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.87895234621119</v>
+        <v>15.12530026999388</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.852589572072501</v>
+        <v>4.204753057016001</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.50597508069894</v>
+        <v>18.02610101220215</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.75226936836282</v>
+        <v>9.676332879409582</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.798901949976716</v>
+        <v>3.440863550146239</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.31970875164126</v>
+        <v>10.69537422891096</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.13380825350305</v>
+        <v>9.982992076564884</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.90201606716217</v>
+        <v>2.25105217093808</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.25311955841317</v>
+        <v>11.78729585167574</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1396604858005709</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2257580052883659</v>
+        <v>0.2257580052883653</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3089283725388304</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.04698073627428647</v>
+        <v>0.02840219695807428</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4250087433011495</v>
+        <v>-0.4135935762022462</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2193899999124541</v>
+        <v>0.2523682657482025</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1774708689920901</v>
+        <v>-0.1611135826935398</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4356989731725744</v>
+        <v>-0.4100264861857663</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.08263325657304728</v>
+        <v>-0.0697230224860515</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01519415823620957</v>
+        <v>0.01933694614731088</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3601282309181583</v>
+        <v>-0.3324353837240047</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1763062392414182</v>
+        <v>0.1703132061891957</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.086278144725204</v>
+        <v>1.164938119578465</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3224346823522678</v>
+        <v>0.3445343582633711</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.372448913733956</v>
+        <v>1.485596089836706</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6678905984884095</v>
+        <v>0.6171304919315812</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2562899580719524</v>
+        <v>0.2215961386856981</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6702877397200623</v>
+        <v>0.6846817801347006</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6650591692003426</v>
+        <v>0.6399376132564306</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1347133978216576</v>
+        <v>0.1446332611591921</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8342848463830198</v>
+        <v>0.7841210847144043</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.3318594790666402</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.693474497343732</v>
+        <v>3.693474497343729</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.33318785993084</v>
@@ -1939,7 +1939,7 @@
         <v>-4.433431977500304</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.867486634667506</v>
+        <v>1.867486634667503</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.077899362164839</v>
@@ -1948,7 +1948,7 @@
         <v>-2.097121675076314</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.782857257204757</v>
+        <v>2.78285725720476</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.497843279311404</v>
+        <v>-0.4436336239594045</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.662192583878902</v>
+        <v>-3.873967642037444</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.2685711351086066</v>
+        <v>-0.6461117860304875</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.08182642735822974</v>
+        <v>-0.3803817348151676</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.583282586598541</v>
+        <v>-8.723437074489178</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.104172231369422</v>
+        <v>-2.055402654603455</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.8904224350980882</v>
+        <v>0.6104166946920485</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.941748371134659</v>
+        <v>-5.033765928146612</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.1807363180133952</v>
+        <v>-0.1631255321841449</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.944507578282485</v>
+        <v>8.452654450040468</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.301870310217176</v>
+        <v>4.436231618465373</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.677803269249537</v>
+        <v>7.860356140891016</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.79792868463106</v>
+        <v>8.554903031352538</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.1678579450567946</v>
+        <v>-0.3839628909763604</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.872255298318503</v>
+        <v>5.917610355216445</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.098171287907606</v>
+        <v>7.170037947595059</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.7831092107544723</v>
+        <v>1.041009451603101</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.30208101218351</v>
+        <v>5.410156503900553</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.02298216917902737</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2557831284347051</v>
+        <v>0.2557831284347049</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2331213735212014</v>
@@ -2044,7 +2044,7 @@
         <v>-0.2385144114255371</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1004689995861669</v>
+        <v>0.1004689995861668</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2463666320025077</v>
@@ -2053,7 +2053,7 @@
         <v>-0.126697781897621</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1681265546085731</v>
+        <v>0.1681265546085733</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03246396273130039</v>
+        <v>-0.02679813256231098</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2326735878960844</v>
+        <v>-0.2281176743392102</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.03305568796471786</v>
+        <v>-0.03621559237060364</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.003429377684643557</v>
+        <v>-0.01802676385672658</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4130919806173451</v>
+        <v>-0.4170457346239416</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1012858312727091</v>
+        <v>-0.09711239732177497</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05244761639441477</v>
+        <v>0.03288586123438993</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2777598796874537</v>
+        <v>-0.2764404111244442</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.01099770074435906</v>
+        <v>-0.01093526163269439</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6188709231144106</v>
+        <v>0.6902646976815981</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3386534726380571</v>
+        <v>0.3514865279417266</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6320418182486753</v>
+        <v>0.6446430760725198</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5408005323543214</v>
+        <v>0.535031882861431</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.004738595319498864</v>
+        <v>-0.01983927881819121</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3633505850477983</v>
+        <v>0.3792572091704159</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4754708624199171</v>
+        <v>0.4726392470315829</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.05100958518891406</v>
+        <v>0.07073359590418567</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3457266555866668</v>
+        <v>0.3603847621937471</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>5.290071020668674</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>7.900633467182927</v>
+        <v>7.90063346718293</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.892484884234586</v>
@@ -2162,7 +2162,7 @@
         <v>4.893566757815307</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>6.883814900408239</v>
+        <v>6.883814900408244</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.337578889475099</v>
+        <v>-1.192171937915897</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.7733760000032653</v>
+        <v>0.9136370207356951</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.417240878803398</v>
+        <v>2.508171282064037</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.5407261484163638</v>
+        <v>-0.177537953220004</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.306980116893676</v>
+        <v>1.677154641921638</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.361247289405626</v>
+        <v>3.846091260821434</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.3611529653449571</v>
+        <v>0.2641816915063743</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.367810390467686</v>
+        <v>2.15927210206391</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.280528236409046</v>
+        <v>4.594658760603472</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.288821962640469</v>
+        <v>5.967889607290997</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>8.317396863839427</v>
+        <v>8.053299227544418</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9.223631286853987</v>
+        <v>9.395461536344902</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.79619689110705</v>
+        <v>6.752286616742334</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.348702938016416</v>
+        <v>8.881464235571206</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>11.21212384383655</v>
+        <v>11.11979901333871</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.545550831688918</v>
+        <v>5.347094619289811</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>7.811665981260576</v>
+        <v>7.564822069923218</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>9.217167348385884</v>
+        <v>9.389245839125437</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.3983822731007479</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5949773277702294</v>
+        <v>0.5949773277702295</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.231111169638494</v>
@@ -2267,7 +2267,7 @@
         <v>0.3909987371989411</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.5500206835581216</v>
+        <v>0.5500206835581221</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0997271201080491</v>
+        <v>-0.09209531201816788</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.04624547976401115</v>
+        <v>0.0693018331837746</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.173554523780979</v>
+        <v>0.1760222835089608</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04115400208020801</v>
+        <v>-0.01987604625477284</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08447235526545087</v>
+        <v>0.1113793026970682</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2721166496274621</v>
+        <v>0.2400214711068124</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02274375039664085</v>
+        <v>0.01965413953369049</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1703500981124207</v>
+        <v>0.154785672706086</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3175887853927687</v>
+        <v>0.3301584493760923</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6152327781840159</v>
+        <v>0.572875502696237</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.8321126830038785</v>
+        <v>0.7885224284100923</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9250408813816684</v>
+        <v>0.9231520656853295</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5784619808421051</v>
+        <v>0.5831824362701122</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7959271869412955</v>
+        <v>0.7762655903114061</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9825058853276979</v>
+        <v>0.9824564755874068</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5018540357404681</v>
+        <v>0.4707087448557332</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6863017399611063</v>
+        <v>0.6799671115353871</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8162257030502422</v>
+        <v>0.8280785550065548</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>2.210235178632209</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>6.153773736763657</v>
+        <v>6.153773736763654</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>4.23384922465703</v>
@@ -2367,7 +2367,7 @@
         <v>1.088251524439845</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.85547672480637</v>
+        <v>3.855476724806367</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>4.129817256561449</v>
@@ -2376,7 +2376,7 @@
         <v>1.649373487258002</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>4.997388299125122</v>
+        <v>4.997388299125119</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.386359026533444</v>
+        <v>1.987367696049968</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.6504672229537624</v>
+        <v>0.6001825661916143</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4.32869641085463</v>
+        <v>4.438846896275646</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.280531640518746</v>
+        <v>2.466420738102006</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.8387572511528564</v>
+        <v>-0.7209812336444984</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.190049983719225</v>
+        <v>2.113688094746829</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.778437709613973</v>
+        <v>2.88281958830066</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.4057680984804281</v>
+        <v>0.4820798734592555</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.884078804888263</v>
+        <v>3.817989570370688</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.789139319773737</v>
+        <v>5.674445963290113</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.020912953495983</v>
+        <v>3.892143562273723</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.831503279141105</v>
+        <v>7.811367752723217</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.225374581294768</v>
+        <v>6.129024827356385</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.024069150100111</v>
+        <v>2.971288432023963</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.550299579752044</v>
+        <v>5.382471792990877</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.399905888189675</v>
+        <v>5.478040471335314</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.053459493920734</v>
+        <v>2.864672790443327</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.194425176595685</v>
+        <v>6.16674296518884</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1750566613580535</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.4873956832853301</v>
+        <v>0.4873956832853298</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2539478483562765</v>
@@ -2472,7 +2472,7 @@
         <v>0.06527373046080157</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2312529253404376</v>
+        <v>0.2312529253404375</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2813132699387798</v>
@@ -2481,7 +2481,7 @@
         <v>0.1123513754303992</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3404101334864397</v>
+        <v>0.3404101334864395</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.176594667369986</v>
+        <v>0.1467531759124035</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.04748304558194712</v>
+        <v>0.04328471973808345</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3105753016144829</v>
+        <v>0.3293339467404083</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.132849791904434</v>
+        <v>0.1416948889545975</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.04926461058589928</v>
+        <v>-0.04385873381237246</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1208043676779114</v>
+        <v>0.1168509052451229</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1789160845305495</v>
+        <v>0.1922703513052666</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.02572574338226144</v>
+        <v>0.03223074272309032</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2566627632903591</v>
+        <v>0.2484661923612461</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4854962381638983</v>
+        <v>0.4747416455312904</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3386443844466512</v>
+        <v>0.3334030160232102</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6601782965350421</v>
+        <v>0.6825415962297786</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3996164915964001</v>
+        <v>0.3882838022556061</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1928643516392091</v>
+        <v>0.1833342821377304</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3542366304774182</v>
+        <v>0.3438006084057811</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.384040355154013</v>
+        <v>0.3928016483371174</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2187393345110124</v>
+        <v>0.2039393000426511</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4428452602017476</v>
+        <v>0.4399073658649308</v>
       </c>
     </row>
     <row r="58">
